--- a/myapp/files/9_MethodComparePercent/Scenario 283.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 283.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>7738</v>
+        <v>2190</v>
       </c>
       <c r="F2" t="n">
-        <v>1.36707742590875</v>
+        <v>1.99686337442556</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11111111111111</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -613,16 +613,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>13354</v>
+        <v>4376</v>
       </c>
       <c r="F3" t="n">
-        <v>2.35925975001104</v>
+        <v>3.99007950981107</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22222222222222</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -651,16 +651,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>17588</v>
+        <v>8051</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1072832472064</v>
+        <v>7.34098037785397</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.59259259259259</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -689,16 +689,16 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>18679</v>
+        <v>4376</v>
       </c>
       <c r="F5" t="n">
-        <v>3.30003091736231</v>
+        <v>3.99007950981107</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7037037037037</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>15241</v>
+        <v>1924</v>
       </c>
       <c r="F6" t="n">
-        <v>2.69263725100481</v>
+        <v>1.75432197826246</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22222222222222</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -765,16 +765,16 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>6657</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1760964621704</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.740740740740741</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>30557</v>
+        <v>2440</v>
       </c>
       <c r="F8" t="n">
-        <v>5.39852480014134</v>
+        <v>2.22481581442848</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>4.81481481481481</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -841,16 +841,16 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>44779</v>
+        <v>6963</v>
       </c>
       <c r="F9" t="n">
-        <v>7.91113466719668</v>
+        <v>6.34893135896127</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,16 +859,16 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>6.66666666666667</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>11.1111111111111</v>
+        <v>9.72222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -879,16 +879,16 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>40159</v>
+        <v>7731</v>
       </c>
       <c r="F10" t="n">
-        <v>7.09491630228347</v>
+        <v>7.04920125465023</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>7.40740740740741</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -917,16 +917,16 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>31088</v>
+        <v>8349</v>
       </c>
       <c r="F11" t="n">
-        <v>5.49233691091383</v>
+        <v>7.61269968633744</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>5.18518518518519</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -955,16 +955,16 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>7137</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.26089837021333</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -993,16 +993,16 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>24845</v>
+        <v>3308</v>
       </c>
       <c r="F13" t="n">
-        <v>4.38938209443046</v>
+        <v>3.01626668611861</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.81481481481481</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>55752</v>
+        <v>11258</v>
       </c>
       <c r="F14" t="n">
-        <v>9.84974161918643</v>
+        <v>10.2651542782114</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,16 +1049,16 @@
         <v>8.33333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>9.62962962962963</v>
+        <v>11.7647058823529</v>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
-        <v>16.6666666666667</v>
+        <v>18.0555555555556</v>
       </c>
     </row>
     <row r="15">
@@ -1069,16 +1069,16 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>56965</v>
+        <v>12608</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0640431076366</v>
+        <v>11.4960974542272</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>19.4444444444444</v>
       </c>
       <c r="I15" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>8.88888888888889</v>
+        <v>8.82352941176471</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1107,16 +1107,16 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>31214</v>
+        <v>2293</v>
       </c>
       <c r="F16" t="n">
-        <v>5.5145974117751</v>
+        <v>2.09077977970676</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>5.92592592592593</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1145,16 +1145,16 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>7171</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.26690517203304</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>15438</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.72744136743077</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.96296296296296</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>21690</v>
+        <v>403</v>
       </c>
       <c r="F19" t="n">
-        <v>3.83198621968994</v>
+        <v>0.367459333284703</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>13.8888888888889</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>5.55555555555556</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>32348</v>
+        <v>5807</v>
       </c>
       <c r="F20" t="n">
-        <v>5.71494191952652</v>
+        <v>5.29487927638777</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1277,10 +1277,10 @@
         <v>20.8333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>7.03703703703704</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1297,16 +1297,16 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>23570</v>
+        <v>7736</v>
       </c>
       <c r="F21" t="n">
-        <v>4.16412702619142</v>
+        <v>7.05376030345029</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>5.18518518518519</v>
+        <v>7.35294117647059</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1335,16 +1335,16 @@
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>6120</v>
+        <v>1904</v>
       </c>
       <c r="F22" t="n">
-        <v>1.08122432754737</v>
+        <v>1.73608578306222</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.11111111111111</v>
+        <v>1.47058823529412</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>13388</v>
+        <v>3321</v>
       </c>
       <c r="F23" t="n">
-        <v>2.36526655183075</v>
+        <v>3.02812021299876</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.22222222222222</v>
+        <v>4.41176470588235</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>15163</v>
+        <v>2628</v>
       </c>
       <c r="F24" t="n">
-        <v>2.67885694094784</v>
+        <v>2.39623604931067</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.22222222222222</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1449,16 +1449,16 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>16521</v>
+        <v>5577</v>
       </c>
       <c r="F25" t="n">
-        <v>2.91877567245263</v>
+        <v>5.08516303158509</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96296296296296</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>12863</v>
+        <v>6429</v>
       </c>
       <c r="F26" t="n">
-        <v>2.27251446490879</v>
+        <v>5.86202494711503</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>2.59259259259259</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>

--- a/myapp/files/9_MethodComparePercent/Scenario 283.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 283.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2190</v>
+        <v>7519</v>
       </c>
       <c r="F2" t="n">
-        <v>1.99686337442556</v>
+        <v>1.32888192939729</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.94117647058824</v>
+        <v>1.49812734082397</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>4376</v>
+        <v>12853</v>
       </c>
       <c r="F3" t="n">
-        <v>3.99007950981107</v>
+        <v>2.27159455227336</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.41176470588235</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>8051</v>
+        <v>16768</v>
       </c>
       <c r="F4" t="n">
-        <v>7.34098037785397</v>
+        <v>2.96351804656654</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94117647058824</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>4376</v>
+        <v>17520</v>
       </c>
       <c r="F5" t="n">
-        <v>3.99007950981107</v>
+        <v>3.09642391315874</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94117647058824</v>
+        <v>3.37078651685393</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>1924</v>
+        <v>14347</v>
       </c>
       <c r="F6" t="n">
-        <v>1.75432197826246</v>
+        <v>2.53563892021053</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.47058823529412</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6621</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.17017253019544</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>2440</v>
+        <v>29780</v>
       </c>
       <c r="F8" t="n">
-        <v>2.22481581442848</v>
+        <v>5.26321370627097</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>2.94117647058824</v>
+        <v>4.49438202247191</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>6963</v>
+        <v>43628</v>
       </c>
       <c r="F9" t="n">
-        <v>6.34893135896127</v>
+        <v>7.71066110064438</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,16 +859,16 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>4.41176470588235</v>
+        <v>6.36704119850187</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>9.72222222222222</v>
+        <v>8.33333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>7731</v>
+        <v>39533</v>
       </c>
       <c r="F10" t="n">
-        <v>7.04920125465023</v>
+        <v>6.98692503190094</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -897,10 +897,10 @@
         <v>5.55555555555556</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
-        <v>7.35294117647059</v>
+        <v>7.11610486891386</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>8349</v>
+        <v>30833</v>
       </c>
       <c r="F11" t="n">
-        <v>7.61269968633744</v>
+        <v>5.44931726680499</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
-        <v>4.41176470588235</v>
+        <v>5.2434456928839</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7029</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.24228103228269</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>3308</v>
+        <v>25399</v>
       </c>
       <c r="F13" t="n">
-        <v>3.01626668611861</v>
+        <v>4.48893099145656</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.16666666666667</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>4.41176470588235</v>
+        <v>5.2434456928839</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11258</v>
+        <v>55893</v>
       </c>
       <c r="F14" t="n">
-        <v>10.2651542782114</v>
+        <v>9.87833457638022</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.33333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>11.7647058823529</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="K14" t="n">
         <v>13</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>12608</v>
+        <v>56962</v>
       </c>
       <c r="F15" t="n">
-        <v>11.4960974542272</v>
+        <v>10.0672659213098</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>19.4444444444444</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8.82352941176471</v>
+        <v>8.98876404494382</v>
       </c>
       <c r="K15" t="n">
         <v>9</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>2293</v>
+        <v>31571</v>
       </c>
       <c r="F16" t="n">
-        <v>2.09077977970676</v>
+        <v>5.57974882205106</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1125,10 +1125,10 @@
         <v>6.94444444444444</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>4.41176470588235</v>
+        <v>5.99250936329588</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7270</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.2848745347411</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15462</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.73270014527742</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>403</v>
+        <v>22725</v>
       </c>
       <c r="F19" t="n">
-        <v>0.367459333284703</v>
+        <v>4.01633752434546</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>13.8888888888889</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
-        <v>1.47058823529412</v>
+        <v>5.61797752808989</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>5807</v>
+        <v>33160</v>
       </c>
       <c r="F20" t="n">
-        <v>5.29487927638777</v>
+        <v>5.86058315983698</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1277,10 +1277,10 @@
         <v>20.8333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J20" t="n">
-        <v>7.35294117647059</v>
+        <v>6.74157303370787</v>
       </c>
       <c r="K20" t="n">
         <v>7</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>7736</v>
+        <v>23850</v>
       </c>
       <c r="F21" t="n">
-        <v>7.05376030345029</v>
+        <v>4.21516611465959</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>7.35294117647059</v>
+        <v>4.8689138576779</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1904</v>
+        <v>6384</v>
       </c>
       <c r="F22" t="n">
-        <v>1.73608578306222</v>
+        <v>1.12828597383592</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1353,10 +1353,10 @@
         <v>1.38888888888889</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.47058823529412</v>
+        <v>1.12359550561798</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3321</v>
+        <v>14111</v>
       </c>
       <c r="F23" t="n">
-        <v>3.02812021299876</v>
+        <v>2.49392910037574</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.41176470588235</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2628</v>
+        <v>15910</v>
       </c>
       <c r="F24" t="n">
-        <v>2.39623604931067</v>
+        <v>2.81187810835363</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.94117647058824</v>
+        <v>2.24719101123596</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>5577</v>
+        <v>17339</v>
       </c>
       <c r="F25" t="n">
-        <v>5.08516303158509</v>
+        <v>3.06443460218376</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>5.88235294117647</v>
+        <v>2.99625468164794</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>6429</v>
+        <v>13347</v>
       </c>
       <c r="F26" t="n">
-        <v>5.86202494711503</v>
+        <v>2.35890239548686</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1505,10 +1505,10 @@
         <v>2.77777777777778</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>5.88235294117647</v>
+        <v>2.62172284644195</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
